--- a/data/trans_orig/Q5415-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{446E4849-1CB1-4BA1-88B5-0BEBAC5C88D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8374894-DD9D-49A1-99A4-A62FD10E10AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B04B7CC-FD8F-47F2-84F9-F2CA68ADEAEC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DB1B571-DF41-418A-A76E-5482CB18BDA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="820">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -92,2431 +92,2413 @@
     <t>1,57%</t>
   </si>
   <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>Menos 50 metros</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>50 o mas metros sin ayuda</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>Menos 50 metros</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
     <t>2,54%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>50 o mas metros sin ayuda</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>75,92%</t>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
 </sst>
 </file>
@@ -2928,7 +2910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8594B85D-9624-497B-BD92-17ADA01442F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E70430-E42E-408A-93B5-E200F6508FE5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3470,7 +3452,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -3479,13 +3461,13 @@
         <v>4576</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -3494,13 +3476,13 @@
         <v>5525</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3497,13 @@
         <v>1094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3530,13 +3512,13 @@
         <v>6394</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3545,13 +3527,13 @@
         <v>7488</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,10 +3548,10 @@
         <v>48896</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>57</v>
@@ -3581,13 +3563,13 @@
         <v>72551</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M14" s="7">
         <v>123</v>
@@ -3596,13 +3578,13 @@
         <v>121447</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,7 +3640,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3670,13 +3652,13 @@
         <v>831</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3685,13 +3667,13 @@
         <v>2142</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3700,13 +3682,13 @@
         <v>2973</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3703,13 @@
         <v>900</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3736,13 +3718,13 @@
         <v>10406</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3751,13 +3733,13 @@
         <v>11306</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,10 +3754,10 @@
         <v>53391</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>57</v>
@@ -3787,13 +3769,13 @@
         <v>61765</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -3802,13 +3784,13 @@
         <v>115157</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,7 +3846,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3876,13 +3858,13 @@
         <v>868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3891,13 +3873,13 @@
         <v>3902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3906,13 +3888,13 @@
         <v>4770</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3909,13 @@
         <v>4281</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3942,13 +3924,13 @@
         <v>3437</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -3957,13 +3939,13 @@
         <v>7718</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3960,13 @@
         <v>24198</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3993,13 +3975,13 @@
         <v>33907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -4008,13 +3990,13 @@
         <v>58105</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4052,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4088,7 +4070,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -4097,13 +4079,13 @@
         <v>2522</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -4112,13 +4094,13 @@
         <v>2522</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4115,13 @@
         <v>3687</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4148,13 +4130,13 @@
         <v>8026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -4163,13 +4145,13 @@
         <v>11714</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4166,13 @@
         <v>43509</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -4199,13 +4181,13 @@
         <v>59761</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -4214,13 +4196,13 @@
         <v>103271</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4258,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4294,7 +4276,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4303,13 +4285,13 @@
         <v>1970</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -4318,13 +4300,13 @@
         <v>3630</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4321,13 @@
         <v>5517</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -4354,13 +4336,13 @@
         <v>8028</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -4369,13 +4351,13 @@
         <v>13545</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4372,13 @@
         <v>98751</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>107</v>
@@ -4405,13 +4387,13 @@
         <v>107123</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>207</v>
@@ -4420,13 +4402,13 @@
         <v>205874</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4464,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4494,13 +4476,13 @@
         <v>3036</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4509,13 +4491,13 @@
         <v>8509</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -4524,13 +4506,13 @@
         <v>11544</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4527,13 @@
         <v>9332</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4560,13 +4542,13 @@
         <v>8268</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -4575,13 +4557,13 @@
         <v>17601</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,10 +4581,10 @@
         <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>129</v>
@@ -4611,13 +4593,13 @@
         <v>136448</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -4626,13 +4608,13 @@
         <v>235973</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4682,13 @@
         <v>7344</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>210</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -4715,13 +4697,13 @@
         <v>31253</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -4730,10 +4712,10 @@
         <v>38597</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>216</v>
@@ -4769,10 +4751,10 @@
         <v>220</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M37" s="7">
         <v>83</v>
@@ -4781,7 +4763,7 @@
         <v>84528</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>223</v>
@@ -4918,7 +4900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9060AE70-A30C-4631-A87E-335F0AC39C71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7767A9-2D4A-4791-9CD6-8B194B02B097}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5239,13 +5221,13 @@
         <v>14295</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5254,13 +5236,13 @@
         <v>20751</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5257,13 @@
         <v>4192</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5290,13 +5272,13 @@
         <v>9801</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5305,13 +5287,13 @@
         <v>13992</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5308,13 @@
         <v>68555</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -5341,13 +5323,13 @@
         <v>77998</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -5356,13 +5338,13 @@
         <v>146553</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,10 +5412,10 @@
         <v>4036</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>264</v>
@@ -5448,7 +5430,7 @@
         <v>265</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>266</v>
@@ -5487,7 +5469,7 @@
         <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5496,13 +5478,13 @@
         <v>5384</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5511,13 +5493,13 @@
         <v>8502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5514,13 @@
         <v>48588</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -5547,13 +5529,13 @@
         <v>63690</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5562,13 +5544,13 @@
         <v>112278</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,7 +5606,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5636,13 +5618,13 @@
         <v>3119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5651,13 +5633,13 @@
         <v>13980</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5666,13 +5648,13 @@
         <v>17099</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5669,13 @@
         <v>8258</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5702,13 +5684,13 @@
         <v>15849</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5717,13 +5699,13 @@
         <v>24108</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5720,13 @@
         <v>96931</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H18" s="7">
         <v>101</v>
@@ -5753,13 +5735,13 @@
         <v>104638</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -5768,13 +5750,13 @@
         <v>201570</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,7 +5812,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5842,13 +5824,13 @@
         <v>1101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5857,13 +5839,13 @@
         <v>4084</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5872,13 +5854,13 @@
         <v>5185</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5875,13 @@
         <v>3348</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5908,13 +5890,13 @@
         <v>3985</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -5923,13 +5905,13 @@
         <v>7333</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5926,13 @@
         <v>27164</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5959,10 +5941,10 @@
         <v>41785</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>333</v>
@@ -6036,7 +6018,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6066,7 +6048,7 @@
         <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>340</v>
@@ -6078,13 +6060,13 @@
         <v>9546</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6081,13 @@
         <v>5369</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6114,13 +6096,13 @@
         <v>6474</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6129,13 +6111,13 @@
         <v>11843</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6132,13 @@
         <v>44243</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -6165,13 +6147,13 @@
         <v>56336</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -6180,13 +6162,13 @@
         <v>100579</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,7 +6224,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6254,13 +6236,13 @@
         <v>5215</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -6269,13 +6251,13 @@
         <v>9103</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -6287,10 +6269,10 @@
         <v>23</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6287,13 @@
         <v>7110</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -6320,13 +6302,13 @@
         <v>18866</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -6335,13 +6317,13 @@
         <v>25977</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6338,13 @@
         <v>99938</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H30" s="7">
         <v>104</v>
@@ -6371,13 +6353,13 @@
         <v>113993</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M30" s="7">
         <v>194</v>
@@ -6386,13 +6368,13 @@
         <v>213931</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,7 +6430,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6460,13 +6442,13 @@
         <v>1098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -6475,13 +6457,13 @@
         <v>9996</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>389</v>
+        <v>26</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>191</v>
+        <v>388</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -6490,13 +6472,13 @@
         <v>11095</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,10 +6496,10 @@
         <v>392</v>
       </c>
       <c r="F33" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -6526,13 +6508,13 @@
         <v>12423</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -6541,13 +6523,13 @@
         <v>16826</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6544,13 @@
         <v>115251</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H34" s="7">
         <v>131</v>
@@ -6577,13 +6559,13 @@
         <v>141998</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>404</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -6592,13 +6574,13 @@
         <v>257249</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,10 +6651,10 @@
         <v>337</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>409</v>
+        <v>268</v>
       </c>
       <c r="H36" s="7">
         <v>63</v>
@@ -6681,13 +6663,13 @@
         <v>69754</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -6696,13 +6678,13 @@
         <v>92923</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6699,13 @@
         <v>35798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -6732,13 +6714,13 @@
         <v>72783</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>295</v>
+        <v>417</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M37" s="7">
         <v>99</v>
@@ -6747,13 +6729,13 @@
         <v>108581</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6750,13 @@
         <v>500670</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="H38" s="7">
         <v>564</v>
@@ -6783,13 +6765,13 @@
         <v>600438</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>159</v>
+        <v>424</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M38" s="7">
         <v>1016</v>
@@ -6798,13 +6780,13 @@
         <v>1101108</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,7 +6866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1D2F61-EDF7-4575-9F2F-986DC9449D45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0AE4F3-F7C4-4297-95D4-128F043AA316}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6901,7 +6883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7014,7 +6996,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7023,13 +7005,13 @@
         <v>1126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7038,13 +7020,13 @@
         <v>1126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7041,13 @@
         <v>2395</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -7074,13 +7056,13 @@
         <v>10209</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -7089,10 +7071,10 @@
         <v>12603</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>443</v>
@@ -7131,7 +7113,7 @@
         <v>448</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>360</v>
+        <v>449</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -7140,13 +7122,13 @@
         <v>74558</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,7 +7202,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -7229,13 +7211,13 @@
         <v>5388</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -7244,13 +7226,13 @@
         <v>5388</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7247,13 @@
         <v>4461</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>145</v>
+        <v>461</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -7280,13 +7262,13 @@
         <v>13891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>461</v>
+        <v>116</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -7295,13 +7277,13 @@
         <v>18352</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7298,13 @@
         <v>82834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>470</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -7331,13 +7313,13 @@
         <v>95949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>473</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -7346,13 +7328,13 @@
         <v>178783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7402,13 @@
         <v>2034</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>211</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7435,13 +7417,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -7450,13 +7432,13 @@
         <v>6512</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>479</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7453,13 @@
         <v>2313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7486,13 +7468,13 @@
         <v>973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>485</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7501,13 +7483,13 @@
         <v>3286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7504,13 @@
         <v>59198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -7537,13 +7519,13 @@
         <v>74447</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -7555,10 +7537,10 @@
         <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,7 +7596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7626,13 +7608,13 @@
         <v>4414</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7641,13 +7623,13 @@
         <v>4645</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>502</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7656,10 +7638,10 @@
         <v>9058</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>504</v>
@@ -7683,7 +7665,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>457</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -7692,13 +7674,13 @@
         <v>6269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -7710,10 +7692,10 @@
         <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7710,13 @@
         <v>60298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -7743,13 +7725,13 @@
         <v>80660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -7758,13 +7740,13 @@
         <v>140957</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,7 +7802,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7838,7 +7820,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7847,13 +7829,13 @@
         <v>2318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7862,13 +7844,13 @@
         <v>2318</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>519</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,10 +7865,10 @@
         <v>3303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>521</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>522</v>
@@ -7940,7 +7922,7 @@
         <v>530</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>531</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7949,7 +7931,7 @@
         <v>34911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>532</v>
@@ -8026,7 +8008,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8104,13 +8086,13 @@
         <v>6288</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>548</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -8119,13 +8101,13 @@
         <v>11279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8122,13 @@
         <v>41803</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -8155,13 +8137,13 @@
         <v>56638</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M26" s="7">
         <v>97</v>
@@ -8170,13 +8152,13 @@
         <v>98441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8232,7 +8214,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8244,13 +8226,13 @@
         <v>6395</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>562</v>
+        <v>317</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -8259,13 +8241,13 @@
         <v>15258</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -8274,13 +8256,13 @@
         <v>21653</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>568</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8277,13 @@
         <v>6008</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>567</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -8310,13 +8292,13 @@
         <v>23089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8325,13 +8307,13 @@
         <v>29097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8328,13 @@
         <v>99783</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H30" s="7">
         <v>93</v>
@@ -8361,13 +8343,13 @@
         <v>109278</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -8376,13 +8358,13 @@
         <v>209061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8438,7 +8420,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8450,13 +8432,13 @@
         <v>4261</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>586</v>
+        <v>394</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -8486,7 +8468,7 @@
         <v>590</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>361</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,13 +8483,13 @@
         <v>4941</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>591</v>
+        <v>245</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>592</v>
+        <v>122</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -8516,13 +8498,13 @@
         <v>15023</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>594</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -8531,13 +8513,13 @@
         <v>19964</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>595</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8534,13 @@
         <v>124966</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="H34" s="7">
         <v>129</v>
@@ -8567,13 +8549,13 @@
         <v>158653</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M34" s="7">
         <v>261</v>
@@ -8582,13 +8564,13 @@
         <v>283619</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,13 +8638,13 @@
         <v>18755</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>607</v>
+        <v>390</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -8671,13 +8653,13 @@
         <v>40296</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>610</v>
+        <v>138</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>611</v>
+        <v>442</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -8686,13 +8668,13 @@
         <v>59051</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>613</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>614</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,13 +8689,13 @@
         <v>28413</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>41</v>
+        <v>609</v>
       </c>
       <c r="H37" s="7">
         <v>72</v>
@@ -8722,13 +8704,13 @@
         <v>89044</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M37" s="7">
         <v>104</v>
@@ -8737,13 +8719,13 @@
         <v>117457</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>620</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8758,13 +8740,13 @@
         <v>544160</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>623</v>
+        <v>444</v>
       </c>
       <c r="H38" s="7">
         <v>552</v>
@@ -8773,13 +8755,13 @@
         <v>648591</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>625</v>
+        <v>379</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="M38" s="7">
         <v>1127</v>
@@ -8788,13 +8770,13 @@
         <v>1192751</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8874,7 +8856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8D5501-FE99-43C5-801D-2399D473AA44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD51359C-F9C4-476F-B8BA-12E5DB579C50}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8891,7 +8873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9004,7 +8986,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -9013,13 +8995,13 @@
         <v>1583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>20</v>
+        <v>622</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>632</v>
+        <v>408</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -9028,13 +9010,13 @@
         <v>1583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9055,7 +9037,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -9064,13 +9046,13 @@
         <v>3430</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -9079,13 +9061,13 @@
         <v>4244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>639</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9100,10 +9082,10 @@
         <v>51105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>494</v>
+        <v>633</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>57</v>
@@ -9115,13 +9097,13 @@
         <v>57207</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
@@ -9130,13 +9112,13 @@
         <v>108312</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>645</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9204,13 +9186,13 @@
         <v>5504</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -9219,13 +9201,13 @@
         <v>15702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -9234,13 +9216,13 @@
         <v>21206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9255,13 +9237,13 @@
         <v>3914</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>654</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -9270,13 +9252,13 @@
         <v>20264</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>474</v>
+        <v>373</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -9285,13 +9267,13 @@
         <v>24178</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>659</v>
+        <v>292</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>660</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9306,13 +9288,13 @@
         <v>76896</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
@@ -9321,13 +9303,13 @@
         <v>104766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="M10" s="7">
         <v>253</v>
@@ -9336,13 +9318,13 @@
         <v>181662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9410,13 +9392,13 @@
         <v>5899</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -9425,13 +9407,13 @@
         <v>7684</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>396</v>
+        <v>666</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -9440,13 +9422,13 @@
         <v>13583</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9461,13 +9443,13 @@
         <v>11331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -9476,13 +9458,13 @@
         <v>19022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -9491,13 +9473,13 @@
         <v>30353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9512,13 +9494,13 @@
         <v>60371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>681</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -9527,13 +9509,13 @@
         <v>68245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -9542,13 +9524,13 @@
         <v>128616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9604,7 +9586,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9616,13 +9598,13 @@
         <v>1321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -9631,13 +9613,13 @@
         <v>11786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>696</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>22</v>
+        <v>690</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -9646,13 +9628,13 @@
         <v>13106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>692</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9667,13 +9649,13 @@
         <v>4804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>699</v>
+        <v>622</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -9682,13 +9664,13 @@
         <v>11324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -9697,13 +9679,13 @@
         <v>16128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9718,13 +9700,13 @@
         <v>72680</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="H18" s="7">
         <v>202</v>
@@ -9733,13 +9715,13 @@
         <v>87345</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
@@ -9748,13 +9730,13 @@
         <v>160026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9810,7 +9792,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -9822,13 +9804,13 @@
         <v>1129</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>710</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9840,10 +9822,10 @@
         <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -9852,13 +9834,13 @@
         <v>2340</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>716</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9873,13 +9855,13 @@
         <v>4515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>245</v>
+        <v>716</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -9888,13 +9870,13 @@
         <v>11752</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -9903,13 +9885,13 @@
         <v>16267</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>723</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9924,13 +9906,13 @@
         <v>32687</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>726</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>728</v>
       </c>
       <c r="H22" s="7">
         <v>134</v>
@@ -9939,13 +9921,13 @@
         <v>52018</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>729</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>731</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -9954,13 +9936,13 @@
         <v>84706</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>732</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10016,7 +9998,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -10028,13 +10010,13 @@
         <v>4612</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>735</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>737</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -10043,13 +10025,13 @@
         <v>10769</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>740</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -10058,13 +10040,13 @@
         <v>15381</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10079,13 +10061,13 @@
         <v>5785</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>745</v>
+        <v>591</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -10094,13 +10076,13 @@
         <v>8899</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -10109,13 +10091,13 @@
         <v>14684</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>750</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10130,13 +10112,13 @@
         <v>52787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>755</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7">
         <v>124</v>
@@ -10145,13 +10127,13 @@
         <v>50185</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="M26" s="7">
         <v>235</v>
@@ -10160,13 +10142,13 @@
         <v>102972</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10222,7 +10204,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10234,13 +10216,13 @@
         <v>2980</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -10249,13 +10231,13 @@
         <v>16270</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -10264,13 +10246,13 @@
         <v>19250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>768</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10285,13 +10267,13 @@
         <v>6183</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>765</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -10300,13 +10282,13 @@
         <v>17467</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>772</v>
+        <v>391</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>773</v>
+        <v>713</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="M29" s="7">
         <v>36</v>
@@ -10315,13 +10297,13 @@
         <v>23650</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>776</v>
+        <v>645</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10336,13 +10318,13 @@
         <v>121677</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="H30" s="7">
         <v>189</v>
@@ -10351,13 +10333,13 @@
         <v>225107</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="M30" s="7">
         <v>347</v>
@@ -10366,13 +10348,13 @@
         <v>346783</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10428,7 +10410,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10440,13 +10422,13 @@
         <v>852</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>390</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -10455,13 +10437,13 @@
         <v>13267</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>789</v>
+        <v>319</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -10470,13 +10452,13 @@
         <v>14120</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10491,13 +10473,13 @@
         <v>12052</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>619</v>
+        <v>783</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>792</v>
+        <v>73</v>
       </c>
       <c r="H33" s="7">
         <v>61</v>
@@ -10506,13 +10488,13 @@
         <v>39284</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>794</v>
+        <v>611</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="M33" s="7">
         <v>78</v>
@@ -10521,13 +10503,13 @@
         <v>51336</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>721</v>
+        <v>787</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>455</v>
+        <v>788</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10542,13 +10524,13 @@
         <v>157023</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="H34" s="7">
         <v>266</v>
@@ -10557,13 +10539,13 @@
         <v>170492</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="M34" s="7">
         <v>482</v>
@@ -10572,13 +10554,13 @@
         <v>327515</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>668</v>
+        <v>797</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>705</v>
+        <v>798</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10646,13 +10628,13 @@
         <v>22297</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>473</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>804</v>
+        <v>713</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>805</v>
+        <v>665</v>
       </c>
       <c r="H36" s="7">
         <v>140</v>
@@ -10661,13 +10643,13 @@
         <v>78272</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>151</v>
+        <v>800</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="M36" s="7">
         <v>175</v>
@@ -10676,13 +10658,13 @@
         <v>100568</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>516</v>
+        <v>164</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10697,13 +10679,13 @@
         <v>49399</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>619</v>
+        <v>783</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="H37" s="7">
         <v>238</v>
@@ -10712,13 +10694,13 @@
         <v>131441</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>812</v>
+        <v>365</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="M37" s="7">
         <v>313</v>
@@ -10727,13 +10709,13 @@
         <v>180840</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10748,13 +10730,13 @@
         <v>625225</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="H38" s="7">
         <v>1327</v>
@@ -10763,13 +10745,13 @@
         <v>815366</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>726</v>
+        <v>816</v>
       </c>
       <c r="M38" s="7">
         <v>2244</v>
@@ -10778,13 +10760,13 @@
         <v>1440591</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5415-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D2111B-BF20-40A5-AA59-65F3CB959AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{074F1C74-DE6C-423A-A0FB-A4498885DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA71AA38-BEA4-4E5D-8E32-4F62960A3409}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D83C15DB-B05C-4779-99D8-BD7ED3017AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="826">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -86,2455 +86,2437 @@
     <t>2,98%</t>
   </si>
   <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>Menos 50 metros</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>50 o mas metros sin ayuda</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>9,39%</t>
   </si>
   <si>
-    <t>Menos 50 metros</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>50 o mas metros sin ayuda</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>7,64%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>89,71%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>75,92%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
   </si>
 </sst>
 </file>
@@ -2946,7 +2928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686530BD-CECE-4BB9-B24D-61041ED49401}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7919CED-68EC-43AC-867A-EE1BE9BF69E2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4151,13 +4133,13 @@
         <v>3687</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -4166,13 +4148,13 @@
         <v>8026</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -4181,13 +4163,13 @@
         <v>11714</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4184,13 @@
         <v>43509</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -4217,13 +4199,13 @@
         <v>59761</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>103</v>
@@ -4232,13 +4214,13 @@
         <v>103271</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,7 +4276,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4312,7 +4294,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4321,13 +4303,13 @@
         <v>1970</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -4339,10 +4321,10 @@
         <v>97</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4339,13 @@
         <v>5517</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -4372,13 +4354,13 @@
         <v>8028</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
@@ -4387,13 +4369,13 @@
         <v>13545</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4390,13 @@
         <v>98751</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>107</v>
@@ -4423,13 +4405,13 @@
         <v>107123</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M30" s="7">
         <v>207</v>
@@ -4438,13 +4420,13 @@
         <v>205874</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,7 +4482,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -4512,13 +4494,13 @@
         <v>3036</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4527,13 +4509,13 @@
         <v>8509</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -4542,13 +4524,13 @@
         <v>11544</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4545,13 @@
         <v>9332</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4578,13 +4560,13 @@
         <v>8268</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -4593,13 +4575,13 @@
         <v>17601</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4596,13 @@
         <v>99525</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>129</v>
@@ -4629,13 +4611,13 @@
         <v>136448</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -4644,13 +4626,13 @@
         <v>235973</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4700,13 @@
         <v>7344</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -4733,13 +4715,13 @@
         <v>31253</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -4748,13 +4730,13 @@
         <v>38597</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4751,13 @@
         <v>30303</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -4784,13 +4766,13 @@
         <v>54225</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M37" s="7">
         <v>83</v>
@@ -4799,13 +4781,13 @@
         <v>84528</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4802,13 @@
         <v>464820</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>581</v>
@@ -4835,13 +4817,13 @@
         <v>591363</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M38" s="7">
         <v>1063</v>
@@ -4850,13 +4832,13 @@
         <v>1056183</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,7 +4894,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4936,7 +4918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13502947-5768-44E0-A469-A10423895B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC5A492-B7C2-44F1-8EEF-1D9E433FFE8D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4953,7 +4935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5058,39 +5040,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,39 +5085,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,39 +5130,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,39 +5175,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5224,13 @@
         <v>6456</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5260,10 +5242,10 @@
         <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5272,13 +5254,13 @@
         <v>20751</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5275,13 @@
         <v>4192</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5308,13 +5290,13 @@
         <v>9801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5323,13 +5305,13 @@
         <v>13992</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5326,13 @@
         <v>68555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -5359,13 +5341,13 @@
         <v>77998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -5374,13 +5356,13 @@
         <v>146553</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5430,13 @@
         <v>4036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5463,13 +5445,13 @@
         <v>10894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -5478,13 +5460,13 @@
         <v>14930</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5481,13 @@
         <v>3118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5514,13 +5496,13 @@
         <v>5384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5529,13 +5511,13 @@
         <v>8502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5532,13 @@
         <v>48588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -5565,13 +5547,13 @@
         <v>63690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5580,13 +5562,13 @@
         <v>112278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,10 +5639,10 @@
         <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5669,13 +5651,13 @@
         <v>13980</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -5684,13 +5666,13 @@
         <v>17099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5687,13 @@
         <v>8258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5720,13 +5702,13 @@
         <v>15849</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -5735,13 +5717,13 @@
         <v>24108</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5738,13 @@
         <v>96931</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H18" s="7">
         <v>101</v>
@@ -5771,13 +5753,13 @@
         <v>104638</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M18" s="7">
         <v>188</v>
@@ -5786,13 +5768,13 @@
         <v>201570</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5842,13 @@
         <v>1101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5875,13 +5857,13 @@
         <v>4084</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5890,13 +5872,13 @@
         <v>5185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,13 +5893,13 @@
         <v>3348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5926,13 +5908,13 @@
         <v>3985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -5941,13 +5923,13 @@
         <v>7333</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5944,13 @@
         <v>27164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5977,13 +5959,13 @@
         <v>41785</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5992,13 +5974,13 @@
         <v>68949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,13 +6048,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6081,13 +6063,13 @@
         <v>7402</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -6096,13 +6078,13 @@
         <v>9546</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6117,13 +6099,13 @@
         <v>5369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6132,13 +6114,13 @@
         <v>6474</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6147,13 +6129,13 @@
         <v>11843</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6168,13 +6150,13 @@
         <v>44243</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -6183,13 +6165,13 @@
         <v>56336</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -6198,13 +6180,13 @@
         <v>100579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,7 +6242,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6272,13 +6254,13 @@
         <v>5215</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -6287,13 +6269,13 @@
         <v>9103</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -6302,13 +6284,13 @@
         <v>14318</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>373</v>
+        <v>23</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6323,13 +6305,13 @@
         <v>7110</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>20</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -6338,13 +6320,13 @@
         <v>18866</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>102</v>
+        <v>373</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -6353,13 +6335,13 @@
         <v>25977</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>376</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6374,13 +6356,13 @@
         <v>99938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H30" s="7">
         <v>104</v>
@@ -6389,13 +6371,13 @@
         <v>113993</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="M30" s="7">
         <v>194</v>
@@ -6404,13 +6386,13 @@
         <v>213931</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,7 +6448,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6478,13 +6460,13 @@
         <v>1098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -6493,13 +6475,13 @@
         <v>9996</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>390</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -6508,13 +6490,13 @@
         <v>11095</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>200</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6511,13 @@
         <v>4402</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -6544,13 +6526,13 @@
         <v>12423</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>401</v>
+        <v>252</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -6559,13 +6541,13 @@
         <v>16826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>294</v>
+        <v>397</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6562,13 @@
         <v>115251</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H34" s="7">
         <v>131</v>
@@ -6595,13 +6577,13 @@
         <v>141998</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -6610,13 +6592,13 @@
         <v>257249</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6666,13 @@
         <v>23169</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>413</v>
+        <v>274</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="H36" s="7">
         <v>63</v>
@@ -6699,13 +6681,13 @@
         <v>69754</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>17</v>
+        <v>410</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -6714,13 +6696,13 @@
         <v>92923</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6717,13 @@
         <v>35798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -6750,13 +6732,13 @@
         <v>72783</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>423</v>
+        <v>295</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M37" s="7">
         <v>99</v>
@@ -6765,13 +6747,13 @@
         <v>108581</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6768,13 @@
         <v>500670</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H38" s="7">
         <v>564</v>
@@ -6801,13 +6783,13 @@
         <v>600438</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>430</v>
+        <v>159</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M38" s="7">
         <v>1016</v>
@@ -6816,13 +6798,13 @@
         <v>1101108</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>257</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,7 +6860,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6902,7 +6884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5EFAD1-3D5A-4CE9-8C6F-9938131124E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC579DF6-46E1-4EA8-8E01-64386D546E63}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6919,7 +6901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7032,7 +7014,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7041,13 +7023,13 @@
         <v>1126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7056,13 +7038,13 @@
         <v>1126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7059,13 @@
         <v>2395</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>437</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -7092,13 +7074,13 @@
         <v>10209</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -7107,13 +7089,13 @@
         <v>12603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>447</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7110,13 @@
         <v>36501</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -7143,28 +7125,28 @@
         <v>38056</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
       </c>
       <c r="N6" s="7">
-        <v>74557</v>
+        <v>74558</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,7 +7188,7 @@
         <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -7238,7 +7220,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -7247,13 +7229,13 @@
         <v>5388</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>455</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -7262,13 +7244,13 @@
         <v>5388</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7265,13 @@
         <v>4461</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>465</v>
+        <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -7298,13 +7280,13 @@
         <v>13891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -7313,13 +7295,13 @@
         <v>18352</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>464</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7316,13 @@
         <v>82834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>474</v>
+        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -7349,13 +7331,13 @@
         <v>95949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -7364,13 +7346,13 @@
         <v>178783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,13 +7420,13 @@
         <v>2034</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7453,13 +7435,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -7468,13 +7450,13 @@
         <v>6512</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>165</v>
+        <v>479</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7471,13 @@
         <v>2313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7504,13 +7486,13 @@
         <v>973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7519,13 +7501,13 @@
         <v>3286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7522,13 @@
         <v>59198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -7555,13 +7537,13 @@
         <v>74447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -7570,13 +7552,13 @@
         <v>133645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7626,13 @@
         <v>4414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7659,13 +7641,13 @@
         <v>4645</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7674,13 +7656,13 @@
         <v>9058</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>461</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -7710,13 +7692,13 @@
         <v>6269</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -7728,10 +7710,10 @@
         <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,13 +7728,13 @@
         <v>60298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -7761,13 +7743,13 @@
         <v>80660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -7776,13 +7758,13 @@
         <v>140957</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,7 +7838,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7865,13 +7847,13 @@
         <v>2318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>517</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7880,13 +7862,13 @@
         <v>2318</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7883,13 @@
         <v>3303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>195</v>
+        <v>520</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -7916,13 +7898,13 @@
         <v>13303</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -7931,13 +7913,13 @@
         <v>16607</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,13 +7934,13 @@
         <v>38777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7967,13 +7949,13 @@
         <v>34911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>536</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -7982,13 +7964,13 @@
         <v>73687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8056,13 +8038,13 @@
         <v>1651</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -8071,13 +8053,13 @@
         <v>4463</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -8086,13 +8068,13 @@
         <v>6114</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8107,13 +8089,13 @@
         <v>4991</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -8122,13 +8104,13 @@
         <v>6288</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>553</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>332</v>
+        <v>548</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -8137,13 +8119,13 @@
         <v>11279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8158,13 +8140,13 @@
         <v>41803</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -8173,13 +8155,13 @@
         <v>56638</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M26" s="7">
         <v>97</v>
@@ -8188,13 +8170,13 @@
         <v>98441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,7 +8232,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8262,13 +8244,13 @@
         <v>6395</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>199</v>
+        <v>562</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -8277,13 +8259,13 @@
         <v>15258</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>225</v>
+        <v>564</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -8295,10 +8277,10 @@
         <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>570</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>571</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8313,13 +8295,13 @@
         <v>6008</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -8328,13 +8310,13 @@
         <v>23089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8343,13 +8325,13 @@
         <v>29097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,13 +8346,13 @@
         <v>99783</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>34</v>
+        <v>577</v>
       </c>
       <c r="H30" s="7">
         <v>93</v>
@@ -8379,13 +8361,13 @@
         <v>109278</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -8394,13 +8376,13 @@
         <v>209061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,7 +8438,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8468,13 +8450,13 @@
         <v>4261</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -8483,13 +8465,13 @@
         <v>2621</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -8498,13 +8480,13 @@
         <v>6882</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>594</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8519,13 +8501,13 @@
         <v>4941</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>595</v>
+        <v>548</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>249</v>
+        <v>591</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -8534,13 +8516,13 @@
         <v>15023</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>598</v>
+        <v>293</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -8549,13 +8531,13 @@
         <v>19964</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>602</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,13 +8552,13 @@
         <v>124966</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>179</v>
+        <v>599</v>
       </c>
       <c r="H34" s="7">
         <v>129</v>
@@ -8585,13 +8567,13 @@
         <v>158653</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="M34" s="7">
         <v>261</v>
@@ -8600,13 +8582,13 @@
         <v>283619</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>603</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8674,13 +8656,13 @@
         <v>18755</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -8689,13 +8671,13 @@
         <v>40296</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>349</v>
+        <v>610</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -8704,13 +8686,13 @@
         <v>59051</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,13 +8707,13 @@
         <v>28413</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>618</v>
+        <v>546</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>620</v>
+        <v>41</v>
       </c>
       <c r="H37" s="7">
         <v>72</v>
@@ -8740,13 +8722,13 @@
         <v>89044</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>404</v>
+        <v>616</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="M37" s="7">
         <v>104</v>
@@ -8755,13 +8737,13 @@
         <v>117457</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,13 +8758,13 @@
         <v>544160</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>206</v>
+        <v>623</v>
       </c>
       <c r="H38" s="7">
         <v>552</v>
@@ -8791,13 +8773,13 @@
         <v>648591</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>161</v>
+        <v>625</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M38" s="7">
         <v>1127</v>
@@ -8806,13 +8788,13 @@
         <v>1192751</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,7 +8850,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -8892,7 +8874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC5FB93-1C93-4910-B2DA-A054398A682D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47891734-DC94-421E-BD8C-027C53EA7F07}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8909,7 +8891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9022,7 +9004,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -9031,13 +9013,13 @@
         <v>1583</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>633</v>
+        <v>20</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>214</v>
+        <v>631</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -9046,13 +9028,13 @@
         <v>1583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>349</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9073,7 +9055,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -9082,13 +9064,13 @@
         <v>3430</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -9097,13 +9079,13 @@
         <v>4244</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>513</v>
+        <v>587</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>642</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9118,10 +9100,10 @@
         <v>51105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>643</v>
+        <v>494</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>57</v>
@@ -9133,13 +9115,13 @@
         <v>57207</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
@@ -9148,13 +9130,13 @@
         <v>108312</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9222,13 +9204,13 @@
         <v>5504</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>646</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -9237,13 +9219,13 @@
         <v>15702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>649</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -9252,13 +9234,13 @@
         <v>21206</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9273,13 +9255,13 @@
         <v>3914</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>658</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
@@ -9288,13 +9270,13 @@
         <v>20264</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
@@ -9303,13 +9285,13 @@
         <v>24178</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9324,13 +9306,13 @@
         <v>76896</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>664</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>665</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
@@ -9339,13 +9321,13 @@
         <v>104766</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>666</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>668</v>
       </c>
       <c r="M10" s="7">
         <v>253</v>
@@ -9354,13 +9336,13 @@
         <v>181662</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9428,10 +9410,10 @@
         <v>5899</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>673</v>
@@ -9449,7 +9431,7 @@
         <v>675</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>676</v>
+        <v>396</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -9458,13 +9440,13 @@
         <v>13583</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>678</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>679</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9479,13 +9461,13 @@
         <v>11331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -9494,13 +9476,13 @@
         <v>19022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -9509,13 +9491,13 @@
         <v>30353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9530,13 +9512,13 @@
         <v>60371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>691</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -9545,13 +9527,13 @@
         <v>68245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
@@ -9560,13 +9542,13 @@
         <v>128616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>691</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9634,13 +9616,13 @@
         <v>1321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -9649,13 +9631,13 @@
         <v>11786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>416</v>
+        <v>696</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>699</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -9664,13 +9646,13 @@
         <v>13106</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>701</v>
+        <v>453</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>702</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9685,13 +9667,13 @@
         <v>4804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>633</v>
+        <v>699</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -9700,13 +9682,13 @@
         <v>11324</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>706</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -9715,13 +9697,13 @@
         <v>16128</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9736,13 +9718,13 @@
         <v>72680</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="H18" s="7">
         <v>202</v>
@@ -9751,13 +9733,13 @@
         <v>87345</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>714</v>
+        <v>665</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
@@ -9766,13 +9748,13 @@
         <v>160026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9840,13 +9822,13 @@
         <v>1129</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -9858,10 +9840,10 @@
         <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -9870,13 +9852,13 @@
         <v>2340</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9891,13 +9873,13 @@
         <v>4515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>727</v>
+        <v>245</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -9906,13 +9888,13 @@
         <v>11752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -9921,13 +9903,13 @@
         <v>16267</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9942,13 +9924,13 @@
         <v>32687</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="H22" s="7">
         <v>134</v>
@@ -9957,13 +9939,13 @@
         <v>52018</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
@@ -9972,13 +9954,13 @@
         <v>84706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10046,13 +10028,13 @@
         <v>4612</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -10061,13 +10043,13 @@
         <v>10769</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -10076,13 +10058,13 @@
         <v>15381</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10097,13 +10079,13 @@
         <v>5785</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>618</v>
+        <v>745</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -10112,13 +10094,13 @@
         <v>8899</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
@@ -10127,13 +10109,13 @@
         <v>14684</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10148,13 +10130,13 @@
         <v>52787</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>110</v>
+        <v>755</v>
       </c>
       <c r="H26" s="7">
         <v>124</v>
@@ -10163,13 +10145,13 @@
         <v>50185</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>758</v>
       </c>
       <c r="M26" s="7">
         <v>235</v>
@@ -10178,13 +10160,13 @@
         <v>102972</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10240,7 +10222,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10252,13 +10234,13 @@
         <v>2980</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -10267,13 +10249,13 @@
         <v>16270</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>273</v>
+        <v>764</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -10282,13 +10264,13 @@
         <v>19250</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>768</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10303,13 +10285,13 @@
         <v>6183</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>775</v>
+        <v>433</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -10318,13 +10300,13 @@
         <v>17467</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>723</v>
+        <v>773</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="M29" s="7">
         <v>36</v>
@@ -10333,13 +10315,13 @@
         <v>23650</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>654</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10354,13 +10336,13 @@
         <v>121677</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H30" s="7">
         <v>189</v>
@@ -10369,13 +10351,13 @@
         <v>225107</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="M30" s="7">
         <v>347</v>
@@ -10384,13 +10366,13 @@
         <v>346783</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10446,7 +10428,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10458,13 +10440,13 @@
         <v>852</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>790</v>
+        <v>390</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -10473,13 +10455,13 @@
         <v>13267</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>325</v>
+        <v>789</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
@@ -10491,10 +10473,10 @@
         <v>142</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10509,13 +10491,13 @@
         <v>12052</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>795</v>
+        <v>619</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>128</v>
+        <v>792</v>
       </c>
       <c r="H33" s="7">
         <v>61</v>
@@ -10524,13 +10506,13 @@
         <v>39284</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="M33" s="7">
         <v>78</v>
@@ -10539,13 +10521,13 @@
         <v>51336</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>800</v>
+        <v>721</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>801</v>
+        <v>455</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10560,13 +10542,13 @@
         <v>157023</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="H34" s="7">
         <v>266</v>
@@ -10575,13 +10557,13 @@
         <v>170492</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="M34" s="7">
         <v>482</v>
@@ -10590,13 +10572,13 @@
         <v>327515</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>810</v>
+        <v>668</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>811</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10664,13 +10646,13 @@
         <v>22297</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>723</v>
+        <v>804</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>675</v>
+        <v>805</v>
       </c>
       <c r="H36" s="7">
         <v>140</v>
@@ -10679,13 +10661,13 @@
         <v>78272</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>91</v>
+        <v>806</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="M36" s="7">
         <v>175</v>
@@ -10694,13 +10676,13 @@
         <v>100568</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>656</v>
+        <v>516</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10715,13 +10697,13 @@
         <v>49399</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>795</v>
+        <v>619</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="H37" s="7">
         <v>238</v>
@@ -10730,13 +10712,13 @@
         <v>131441</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="M37" s="7">
         <v>313</v>
@@ -10745,13 +10727,13 @@
         <v>180840</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10766,13 +10748,13 @@
         <v>625225</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="H38" s="7">
         <v>1327</v>
@@ -10781,13 +10763,13 @@
         <v>815366</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>828</v>
+        <v>726</v>
       </c>
       <c r="M38" s="7">
         <v>2244</v>
@@ -10796,13 +10778,13 @@
         <v>1440591</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10858,7 +10840,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5415-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5415-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{074F1C74-DE6C-423A-A0FB-A4498885DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA055800-EF37-4B2D-937F-8BA991535840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D83C15DB-B05C-4779-99D8-BD7ED3017AD7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4C1DDE40-8CFC-44A5-8A17-0E5AF065FEF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="849">
   <si>
     <t>Población según si es capaz de salir a caminar en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -749,7 +749,82 @@
     <t>Población según si es capaz de salir a caminar en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
   </si>
   <si>
     <t>8,15%</t>
@@ -902,1621 +977,1615 @@
     <t>88,31%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
     <t>11,01%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de salir a caminar en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>21,66%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
 </sst>
 </file>
@@ -2928,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7919CED-68EC-43AC-867A-EE1BE9BF69E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B128F1D-4074-4FDA-A34E-6CC19EC289EB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4918,7 +4987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC5A492-B7C2-44F1-8EEF-1D9E433FFE8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB9F107-14CD-4763-9FB4-B0C5944F2E70}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5036,43 +5105,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>986</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9591</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10577</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,43 +5156,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2949</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8479</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N5" s="7">
+        <v>11429</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,43 +5207,49 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40346</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>30824</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="N6" s="7">
+        <v>71169</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,43 +5258,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44281</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7">
+        <v>48894</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N7" s="7">
+        <v>93175</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5317,13 @@
         <v>6456</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -5242,10 +5335,10 @@
         <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -5254,13 +5347,13 @@
         <v>20751</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5368,13 @@
         <v>4192</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5290,13 +5383,13 @@
         <v>9801</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -5305,13 +5398,13 @@
         <v>13992</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5419,13 @@
         <v>68555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -5341,13 +5434,13 @@
         <v>77998</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -5356,13 +5449,13 @@
         <v>146553</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5523,13 @@
         <v>4036</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -5445,13 +5538,13 @@
         <v>10894</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>14</v>
@@ -5460,13 +5553,13 @@
         <v>14930</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5574,13 @@
         <v>3118</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5496,13 +5589,13 @@
         <v>5384</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5514,10 +5607,10 @@
         <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5625,13 @@
         <v>48588</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -5547,13 +5640,13 @@
         <v>63690</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5562,13 +5655,13 @@
         <v>112278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,49 +5723,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>3119</v>
+        <v>2133</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>13980</v>
+        <v>4389</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>17099</v>
+        <v>6522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,49 +5774,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>8258</v>
+        <v>5309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>15849</v>
+        <v>7370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N17" s="7">
-        <v>24108</v>
+        <v>12679</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,49 +5825,49 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7">
-        <v>96931</v>
+        <v>56586</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="I18" s="7">
-        <v>104638</v>
+        <v>73815</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="N18" s="7">
-        <v>201570</v>
+        <v>130401</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5783,10 +5876,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -5798,10 +5891,10 @@
         <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -5813,10 +5906,10 @@
         <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N19" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -5842,13 +5935,13 @@
         <v>1101</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5857,13 +5950,13 @@
         <v>4084</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5872,13 +5965,13 @@
         <v>5185</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>197</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5986,13 @@
         <v>3348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5908,13 +6001,13 @@
         <v>3985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -5923,13 +6016,13 @@
         <v>7333</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +6037,13 @@
         <v>27164</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5959,13 +6052,13 @@
         <v>41785</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -5974,13 +6067,13 @@
         <v>68949</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6141,13 @@
         <v>2144</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6063,13 +6156,13 @@
         <v>7402</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -6078,13 +6171,13 @@
         <v>9546</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6192,13 @@
         <v>5369</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6114,13 +6207,13 @@
         <v>6474</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -6129,13 +6222,13 @@
         <v>11843</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,13 +6243,13 @@
         <v>44243</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -6165,13 +6258,13 @@
         <v>56336</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>99</v>
@@ -6180,13 +6273,13 @@
         <v>100579</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6347,13 @@
         <v>5215</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -6269,13 +6362,13 @@
         <v>9103</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -6287,10 +6380,10 @@
         <v>23</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6398,13 @@
         <v>7110</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -6320,13 +6413,13 @@
         <v>18866</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -6335,13 +6428,13 @@
         <v>25977</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6449,13 @@
         <v>99938</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="H30" s="7">
         <v>104</v>
@@ -6371,13 +6464,13 @@
         <v>113993</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="M30" s="7">
         <v>194</v>
@@ -6386,13 +6479,13 @@
         <v>213931</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>385</v>
+        <v>406</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6553,13 @@
         <v>1098</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="H32" s="7">
         <v>9</v>
@@ -6475,10 +6568,10 @@
         <v>9996</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>191</v>
@@ -6493,10 +6586,10 @@
         <v>200</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>302</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6604,13 @@
         <v>4402</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -6526,13 +6619,13 @@
         <v>12423</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="M33" s="7">
         <v>15</v>
@@ -6541,13 +6634,13 @@
         <v>16826</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6655,13 @@
         <v>115251</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="H34" s="7">
         <v>131</v>
@@ -6577,13 +6670,13 @@
         <v>141998</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -6592,13 +6685,13 @@
         <v>257249</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6759,13 @@
         <v>23169</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="H36" s="7">
         <v>63</v>
@@ -6681,13 +6774,13 @@
         <v>69754</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -6696,13 +6789,13 @@
         <v>92923</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6810,13 @@
         <v>35798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="H37" s="7">
         <v>67</v>
@@ -6732,13 +6825,13 @@
         <v>72783</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>295</v>
+        <v>442</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="M37" s="7">
         <v>99</v>
@@ -6750,10 +6843,10 @@
         <v>194</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6861,13 @@
         <v>500670</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="H38" s="7">
         <v>564</v>
@@ -6786,10 +6879,10 @@
         <v>159</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="M38" s="7">
         <v>1016</v>
@@ -6798,13 +6891,13 @@
         <v>1101108</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6884,7 +6977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC579DF6-46E1-4EA8-8E01-64386D546E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015F71E7-79CF-4734-AC3D-71D88FE547DF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6901,7 +6994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7014,7 +7107,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7023,13 +7116,13 @@
         <v>1126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>434</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7038,13 +7131,13 @@
         <v>1126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7152,13 @@
         <v>2395</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>438</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -7074,13 +7167,13 @@
         <v>10209</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -7089,13 +7182,13 @@
         <v>12603</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7203,13 @@
         <v>36501</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="H6" s="7">
         <v>34</v>
@@ -7125,13 +7218,13 @@
         <v>38056</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>73</v>
@@ -7140,13 +7233,13 @@
         <v>74558</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7220,7 +7313,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -7229,13 +7322,13 @@
         <v>5388</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -7244,13 +7337,13 @@
         <v>5388</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7358,13 @@
         <v>4461</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>145</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>459</v>
+        <v>250</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -7280,13 +7373,13 @@
         <v>13891</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -7295,13 +7388,13 @@
         <v>18352</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,10 +7409,10 @@
         <v>82834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>155</v>
@@ -7331,10 +7424,10 @@
         <v>95949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>109</v>
@@ -7346,13 +7439,13 @@
         <v>178783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7513,13 @@
         <v>2034</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7435,13 +7528,13 @@
         <v>4477</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -7450,13 +7543,13 @@
         <v>6512</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7564,13 @@
         <v>2313</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7486,13 +7579,13 @@
         <v>973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7501,13 +7594,13 @@
         <v>3286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7615,13 @@
         <v>59198</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -7537,13 +7630,13 @@
         <v>74447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -7552,13 +7645,13 @@
         <v>133645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7719,13 @@
         <v>4414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -7641,13 +7734,13 @@
         <v>4645</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7656,13 +7749,13 @@
         <v>9058</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,7 +7776,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -7695,10 +7788,10 @@
         <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -7710,10 +7803,10 @@
         <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7821,13 @@
         <v>60298</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -7743,13 +7836,13 @@
         <v>80660</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="M18" s="7">
         <v>134</v>
@@ -7758,13 +7851,13 @@
         <v>140957</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,7 +7931,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7847,13 +7940,13 @@
         <v>2318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -7862,13 +7955,13 @@
         <v>2318</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,13 +7976,13 @@
         <v>3303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -7898,13 +7991,13 @@
         <v>13303</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -7913,13 +8006,13 @@
         <v>16607</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,13 +8027,13 @@
         <v>38777</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -7949,13 +8042,13 @@
         <v>34911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>308</v>
+        <v>553</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="M22" s="7">
         <v>76</v>
@@ -7964,13 +8057,13 @@
         <v>73687</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8131,13 @@
         <v>1651</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -8053,13 +8146,13 @@
         <v>4463</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>540</v>
+        <v>562</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -8068,13 +8161,13 @@
         <v>6114</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>544</v>
+        <v>566</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8182,13 @@
         <v>4991</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>567</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -8104,13 +8197,13 @@
         <v>6288</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>548</v>
+        <v>323</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -8119,13 +8212,13 @@
         <v>11279</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8233,13 @@
         <v>41803</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H26" s="7">
         <v>50</v>
@@ -8155,13 +8248,13 @@
         <v>56638</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="M26" s="7">
         <v>97</v>
@@ -8170,13 +8263,13 @@
         <v>98441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8244,13 +8337,13 @@
         <v>6395</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -8259,13 +8352,13 @@
         <v>15258</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -8277,7 +8370,7 @@
         <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>143</v>
@@ -8295,13 +8388,13 @@
         <v>6008</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -8310,13 +8403,13 @@
         <v>23089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -8325,13 +8418,13 @@
         <v>29097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8346,13 +8439,13 @@
         <v>99783</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="H30" s="7">
         <v>93</v>
@@ -8361,13 +8454,13 @@
         <v>109278</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="M30" s="7">
         <v>189</v>
@@ -8376,13 +8469,13 @@
         <v>209061</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,13 +8543,13 @@
         <v>4261</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>584</v>
+        <v>320</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -8465,13 +8558,13 @@
         <v>2621</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -8480,13 +8573,13 @@
         <v>6882</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,13 +8594,13 @@
         <v>4941</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>548</v>
+        <v>323</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="H33" s="7">
         <v>11</v>
@@ -8516,13 +8609,13 @@
         <v>15023</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>293</v>
+        <v>613</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -8531,13 +8624,13 @@
         <v>19964</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,13 +8645,13 @@
         <v>124966</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="H34" s="7">
         <v>129</v>
@@ -8567,13 +8660,13 @@
         <v>158653</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="M34" s="7">
         <v>261</v>
@@ -8582,13 +8675,13 @@
         <v>283619</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8656,13 +8749,13 @@
         <v>18755</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -8671,13 +8764,13 @@
         <v>40296</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -8686,13 +8779,13 @@
         <v>59051</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8707,10 +8800,10 @@
         <v>28413</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>41</v>
@@ -8722,13 +8815,13 @@
         <v>89044</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="M37" s="7">
         <v>104</v>
@@ -8737,13 +8830,13 @@
         <v>117457</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8758,13 +8851,13 @@
         <v>544160</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
       <c r="H38" s="7">
         <v>552</v>
@@ -8773,13 +8866,13 @@
         <v>648591</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="M38" s="7">
         <v>1127</v>
@@ -8788,13 +8881,13 @@
         <v>1192751</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8874,7 +8967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47891734-DC94-421E-BD8C-027C53EA7F07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A3C4C9-54DF-4513-8F97-86CF0A704C29}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8891,7 +8984,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9004,37 +9097,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>20</v>
+        <v>651</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>632</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>633</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9046,46 +9139,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>815</v>
+        <v>892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>655</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>635</v>
+        <v>394</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>3430</v>
+        <v>3405</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>4244</v>
+        <v>4297</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>395</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9097,13 +9190,13 @@
         <v>82</v>
       </c>
       <c r="D6" s="7">
-        <v>51105</v>
+        <v>55009</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>494</v>
+        <v>662</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>640</v>
+        <v>663</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>57</v>
@@ -9112,31 +9205,31 @@
         <v>123</v>
       </c>
       <c r="I6" s="7">
-        <v>57207</v>
+        <v>58428</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>641</v>
+        <v>664</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>642</v>
+        <v>665</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>643</v>
+        <v>666</v>
       </c>
       <c r="M6" s="7">
         <v>205</v>
       </c>
       <c r="N6" s="7">
-        <v>108312</v>
+        <v>113437</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>466</v>
+        <v>667</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9148,7 +9241,7 @@
         <v>83</v>
       </c>
       <c r="D7" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -9163,7 +9256,7 @@
         <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -9178,7 +9271,7 @@
         <v>215</v>
       </c>
       <c r="N7" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -9201,46 +9294,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>5504</v>
+        <v>5114</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>648</v>
+        <v>418</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>15702</v>
+        <v>13967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>650</v>
+        <v>593</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>21206</v>
+        <v>19082</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>653</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9252,46 +9345,46 @@
         <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>3914</v>
+        <v>3598</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>654</v>
+        <v>274</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="H9" s="7">
         <v>31</v>
       </c>
       <c r="I9" s="7">
-        <v>20264</v>
+        <v>18212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>474</v>
+        <v>93</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="M9" s="7">
         <v>35</v>
       </c>
       <c r="N9" s="7">
-        <v>24178</v>
+        <v>21810</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>661</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9303,46 +9396,46 @@
         <v>85</v>
       </c>
       <c r="D10" s="7">
-        <v>76896</v>
+        <v>71997</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="H10" s="7">
         <v>168</v>
       </c>
       <c r="I10" s="7">
-        <v>104766</v>
+        <v>96247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>665</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="M10" s="7">
         <v>253</v>
       </c>
       <c r="N10" s="7">
-        <v>181662</v>
+        <v>168243</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,7 +9447,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
@@ -9369,7 +9462,7 @@
         <v>222</v>
       </c>
       <c r="I11" s="7">
-        <v>140732</v>
+        <v>128426</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -9384,7 +9477,7 @@
         <v>317</v>
       </c>
       <c r="N11" s="7">
-        <v>227046</v>
+        <v>209135</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -9407,46 +9500,46 @@
         <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>5899</v>
+        <v>5544</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>7684</v>
+        <v>7043</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>396</v>
+        <v>694</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
       </c>
       <c r="N12" s="7">
-        <v>13583</v>
+        <v>12587</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9458,46 +9551,46 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>11331</v>
+        <v>10628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>661</v>
+        <v>698</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>679</v>
+        <v>700</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>19022</v>
+        <v>17177</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>680</v>
+        <v>701</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>30353</v>
+        <v>27805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9509,46 +9602,46 @@
         <v>95</v>
       </c>
       <c r="D14" s="7">
-        <v>60371</v>
+        <v>57318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>708</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
       </c>
       <c r="I14" s="7">
-        <v>68245</v>
+        <v>63204</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>689</v>
+        <v>710</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="M14" s="7">
         <v>216</v>
       </c>
       <c r="N14" s="7">
-        <v>128616</v>
+        <v>120523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>692</v>
+        <v>713</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>693</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9560,7 +9653,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -9575,7 +9668,7 @@
         <v>169</v>
       </c>
       <c r="I15" s="7">
-        <v>94951</v>
+        <v>87425</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -9590,7 +9683,7 @@
         <v>291</v>
       </c>
       <c r="N15" s="7">
-        <v>172552</v>
+        <v>160915</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -9613,46 +9706,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1321</v>
+        <v>1260</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>500</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>11786</v>
+        <v>10982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>695</v>
+        <v>716</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>696</v>
+        <v>717</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>22</v>
+        <v>718</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>13106</v>
+        <v>12242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>697</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>453</v>
+        <v>719</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>720</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9664,46 +9757,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>4804</v>
+        <v>4526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>699</v>
+        <v>722</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>11324</v>
+        <v>10627</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>438</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>16128</v>
+        <v>15153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>593</v>
+        <v>726</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>703</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9715,46 +9808,46 @@
         <v>109</v>
       </c>
       <c r="D18" s="7">
-        <v>72680</v>
+        <v>68882</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>705</v>
+        <v>730</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>706</v>
+        <v>731</v>
       </c>
       <c r="H18" s="7">
         <v>202</v>
       </c>
       <c r="I18" s="7">
-        <v>87345</v>
+        <v>82027</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>707</v>
+        <v>732</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>665</v>
+        <v>733</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>708</v>
+        <v>284</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
       </c>
       <c r="N18" s="7">
-        <v>160026</v>
+        <v>150908</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>710</v>
+        <v>735</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9766,7 +9859,7 @@
         <v>118</v>
       </c>
       <c r="D19" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -9781,7 +9874,7 @@
         <v>256</v>
       </c>
       <c r="I19" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -9796,7 +9889,7 @@
         <v>374</v>
       </c>
       <c r="N19" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -9819,46 +9912,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1129</v>
+        <v>1014</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>712</v>
+        <v>737</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>375</v>
+        <v>738</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1211</v>
+        <v>1089</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>65</v>
+        <v>739</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>713</v>
+        <v>740</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>714</v>
+        <v>741</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>2340</v>
+        <v>2103</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>715</v>
+        <v>742</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>717</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9870,46 +9963,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>4515</v>
+        <v>4037</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>718</v>
+        <v>745</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>245</v>
+        <v>741</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>719</v>
+        <v>746</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
       </c>
       <c r="I21" s="7">
-        <v>11752</v>
+        <v>10434</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>720</v>
+        <v>747</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>721</v>
+        <v>748</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>722</v>
+        <v>749</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
       </c>
       <c r="N21" s="7">
-        <v>16267</v>
+        <v>14471</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>723</v>
+        <v>750</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>724</v>
+        <v>751</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>725</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9921,46 +10014,46 @@
         <v>61</v>
       </c>
       <c r="D22" s="7">
-        <v>32687</v>
+        <v>29765</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>726</v>
+        <v>511</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="H22" s="7">
         <v>134</v>
       </c>
       <c r="I22" s="7">
-        <v>52018</v>
+        <v>47290</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>729</v>
+        <v>755</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>731</v>
+        <v>757</v>
       </c>
       <c r="M22" s="7">
         <v>195</v>
       </c>
       <c r="N22" s="7">
-        <v>84706</v>
+        <v>77055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>732</v>
+        <v>758</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>734</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9972,7 +10065,7 @@
         <v>71</v>
       </c>
       <c r="D23" s="7">
-        <v>38331</v>
+        <v>34816</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -9987,7 +10080,7 @@
         <v>164</v>
       </c>
       <c r="I23" s="7">
-        <v>64981</v>
+        <v>58813</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -10002,7 +10095,7 @@
         <v>235</v>
       </c>
       <c r="N23" s="7">
-        <v>103313</v>
+        <v>93629</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -10025,46 +10118,46 @@
         <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>4612</v>
+        <v>4374</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>735</v>
+        <v>761</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>736</v>
+        <v>762</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>737</v>
+        <v>763</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>10769</v>
+        <v>10044</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>738</v>
+        <v>764</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>739</v>
+        <v>765</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>740</v>
+        <v>766</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
       </c>
       <c r="N24" s="7">
-        <v>15381</v>
+        <v>14418</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>741</v>
+        <v>767</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>742</v>
+        <v>768</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>743</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10076,46 +10169,46 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>5785</v>
+        <v>5515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>744</v>
+        <v>770</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>745</v>
+        <v>771</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>746</v>
+        <v>772</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
       </c>
       <c r="I25" s="7">
-        <v>8899</v>
+        <v>8306</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>747</v>
+        <v>773</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="M25" s="7">
         <v>37</v>
       </c>
       <c r="N25" s="7">
-        <v>14684</v>
+        <v>13822</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10127,46 +10220,46 @@
         <v>111</v>
       </c>
       <c r="D26" s="7">
-        <v>52787</v>
+        <v>50372</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="H26" s="7">
         <v>124</v>
       </c>
       <c r="I26" s="7">
-        <v>50185</v>
+        <v>46908</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
       <c r="M26" s="7">
         <v>235</v>
       </c>
       <c r="N26" s="7">
-        <v>102972</v>
+        <v>97279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10178,7 +10271,7 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -10193,7 +10286,7 @@
         <v>177</v>
       </c>
       <c r="I27" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -10208,7 +10301,7 @@
         <v>312</v>
       </c>
       <c r="N27" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -10231,46 +10324,46 @@
         <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>2980</v>
+        <v>2751</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>433</v>
+        <v>236</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
       </c>
       <c r="I28" s="7">
-        <v>16270</v>
+        <v>14557</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
       </c>
       <c r="N28" s="7">
-        <v>19250</v>
+        <v>17307</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10282,46 +10375,46 @@
         <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>6183</v>
+        <v>5692</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>770</v>
+        <v>211</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>433</v>
+        <v>796</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
       </c>
       <c r="I29" s="7">
-        <v>17467</v>
+        <v>15695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>772</v>
+        <v>719</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>773</v>
+        <v>798</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>774</v>
+        <v>799</v>
       </c>
       <c r="M29" s="7">
         <v>36</v>
       </c>
       <c r="N29" s="7">
-        <v>23650</v>
+        <v>21388</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>775</v>
+        <v>800</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>776</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10333,46 +10426,46 @@
         <v>158</v>
       </c>
       <c r="D30" s="7">
-        <v>121677</v>
+        <v>114811</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>778</v>
+        <v>803</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>779</v>
+        <v>804</v>
       </c>
       <c r="H30" s="7">
         <v>189</v>
       </c>
       <c r="I30" s="7">
-        <v>225107</v>
+        <v>308930</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>780</v>
+        <v>805</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>781</v>
+        <v>806</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>782</v>
+        <v>530</v>
       </c>
       <c r="M30" s="7">
         <v>347</v>
       </c>
       <c r="N30" s="7">
-        <v>346783</v>
+        <v>423741</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>784</v>
+        <v>353</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>785</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10384,7 +10477,7 @@
         <v>168</v>
       </c>
       <c r="D31" s="7">
-        <v>130840</v>
+        <v>123254</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -10399,7 +10492,7 @@
         <v>242</v>
       </c>
       <c r="I31" s="7">
-        <v>258843</v>
+        <v>339182</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>38</v>
@@ -10414,7 +10507,7 @@
         <v>410</v>
       </c>
       <c r="N31" s="7">
-        <v>389683</v>
+        <v>462436</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>38</v>
@@ -10437,46 +10530,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>852</v>
+        <v>762</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>390</v>
+        <v>810</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
       </c>
       <c r="I32" s="7">
-        <v>13267</v>
+        <v>9821</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>788</v>
+        <v>626</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>789</v>
+        <v>322</v>
       </c>
       <c r="M32" s="7">
         <v>18</v>
       </c>
       <c r="N32" s="7">
-        <v>14120</v>
+        <v>10583</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>142</v>
+        <v>626</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>790</v>
+        <v>65</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>764</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10488,46 +10581,46 @@
         <v>17</v>
       </c>
       <c r="D33" s="7">
-        <v>12052</v>
+        <v>10381</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>619</v>
+        <v>717</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>791</v>
+        <v>812</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>792</v>
+        <v>813</v>
       </c>
       <c r="H33" s="7">
         <v>61</v>
       </c>
       <c r="I33" s="7">
-        <v>39284</v>
+        <v>32911</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>793</v>
+        <v>814</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>794</v>
+        <v>815</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>795</v>
+        <v>816</v>
       </c>
       <c r="M33" s="7">
         <v>78</v>
       </c>
       <c r="N33" s="7">
-        <v>51336</v>
+        <v>43292</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>721</v>
+        <v>817</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>455</v>
+        <v>818</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10539,46 +10632,46 @@
         <v>216</v>
       </c>
       <c r="D34" s="7">
-        <v>157023</v>
+        <v>135937</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>798</v>
+        <v>821</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="H34" s="7">
         <v>266</v>
       </c>
       <c r="I34" s="7">
-        <v>170492</v>
+        <v>143910</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>800</v>
+        <v>823</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>801</v>
+        <v>824</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>802</v>
+        <v>825</v>
       </c>
       <c r="M34" s="7">
         <v>482</v>
       </c>
       <c r="N34" s="7">
-        <v>327515</v>
+        <v>279847</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>803</v>
+        <v>826</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>668</v>
+        <v>827</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>705</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10590,7 +10683,7 @@
         <v>235</v>
       </c>
       <c r="D35" s="7">
-        <v>169927</v>
+        <v>147080</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>38</v>
@@ -10605,7 +10698,7 @@
         <v>343</v>
       </c>
       <c r="I35" s="7">
-        <v>223043</v>
+        <v>186642</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>38</v>
@@ -10620,7 +10713,7 @@
         <v>578</v>
       </c>
       <c r="N35" s="7">
-        <v>392970</v>
+        <v>333722</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>38</v>
@@ -10643,46 +10736,46 @@
         <v>35</v>
       </c>
       <c r="D36" s="7">
-        <v>22297</v>
+        <v>20819</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>804</v>
+        <v>456</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>805</v>
+        <v>719</v>
       </c>
       <c r="H36" s="7">
         <v>140</v>
       </c>
       <c r="I36" s="7">
-        <v>78272</v>
+        <v>69079</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>151</v>
+        <v>829</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="M36" s="7">
         <v>175</v>
       </c>
       <c r="N36" s="7">
-        <v>100568</v>
+        <v>89898</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>808</v>
+        <v>741</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>516</v>
+        <v>831</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>809</v>
+        <v>832</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10694,46 +10787,46 @@
         <v>75</v>
       </c>
       <c r="D37" s="7">
-        <v>49399</v>
+        <v>45269</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>619</v>
+        <v>833</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="H37" s="7">
         <v>238</v>
       </c>
       <c r="I37" s="7">
-        <v>131441</v>
+        <v>116768</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>814</v>
+        <v>563</v>
       </c>
       <c r="M37" s="7">
         <v>313</v>
       </c>
       <c r="N37" s="7">
-        <v>180840</v>
+        <v>162037</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>815</v>
+        <v>838</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10745,46 +10838,46 @@
         <v>917</v>
       </c>
       <c r="D38" s="7">
-        <v>625225</v>
+        <v>584090</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>818</v>
+        <v>226</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
       <c r="H38" s="7">
         <v>1327</v>
       </c>
       <c r="I38" s="7">
-        <v>815366</v>
+        <v>846944</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>726</v>
+        <v>845</v>
       </c>
       <c r="M38" s="7">
         <v>2244</v>
       </c>
       <c r="N38" s="7">
-        <v>1440591</v>
+        <v>1431034</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>823</v>
+        <v>846</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>824</v>
+        <v>847</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>825</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10796,7 +10889,7 @@
         <v>1027</v>
       </c>
       <c r="D39" s="7">
-        <v>696921</v>
+        <v>650178</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -10811,7 +10904,7 @@
         <v>1705</v>
       </c>
       <c r="I39" s="7">
-        <v>1025079</v>
+        <v>1032791</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>38</v>
@@ -10826,7 +10919,7 @@
         <v>2732</v>
       </c>
       <c r="N39" s="7">
-        <v>1722000</v>
+        <v>1682969</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
